--- a/biology/Botanique/Calanthe/Calanthe.xlsx
+++ b/biology/Botanique/Calanthe/Calanthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calanthe est un genre d'orchidées appartenant à la sous-famille des Epidendroideae qui a été décrit par Robert Brown en 1821. Il comprend 150 espèces qui vivent dans les zones tropicales et sont majoritairement concentrées en Asie. Son nom provient du grec καλος (kalos) = « beau » et ανθος (anthos) = « fleur ».
 </t>
@@ -511,21 +523,23 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Alismorkis Thouars[1]
-Alismorchis Thouars[2]
-Centrosis Thouars[3]
-Amblyglottis Blume[4]
-Zoduba Buch.-Ham. ex D.Don[5]
-Styloglossum Breda[6]
-Centrosia A.Rich.[7]
-Zeduba Ham. ex Meisn.[8]
-Ghiesbreghtia A.Rich. &amp; Galeotti[9]
-Preptanthe Rchb.f.[10]
-Calanthidium Pfitzer[11]
-Aulostylis Schltr.[12]
-Paracalanthe Kudô[13]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alismorkis Thouars
+Alismorchis Thouars
+Centrosis Thouars
+Amblyglottis Blume
+Zoduba Buch.-Ham. ex D.Don
+Styloglossum Breda
+Centrosia A.Rich.
+Zeduba Ham. ex Meisn.
+Ghiesbreghtia A.Rich. &amp; Galeotti
+Preptanthe Rchb.f.
+Calanthidium Pfitzer
+Aulostylis Schltr.
+Paracalanthe Kudô</t>
         </is>
       </c>
     </row>
@@ -553,7 +567,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Calanthe comprend deux groupes: des espèces à feuilles caduques et des espèces à feuillage persistant.
 </t>
@@ -585,6 +601,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
